--- a/src/main/resources/data/Test Data.xlsx
+++ b/src/main/resources/data/Test Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B688CC3B-CE0A-414F-9F18-02C1555C5B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Manager" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -30,12 +31,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>TC_002</t>
-  </si>
-  <si>
     <t>Login in HRM System</t>
   </si>
   <si>
@@ -69,16 +64,19 @@
     <t>edge</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>admin123456</t>
+  </si>
+  <si>
+    <t>testLoginIntoHRM</t>
+  </si>
+  <si>
+    <t>testLoginPagewithValidCredential</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,6 +120,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -170,7 +171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +204,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,6 +256,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,19 +448,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -439,32 +475,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -473,23 +509,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,81 +533,81 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -580,12 +616,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
